--- a/data_year/zb/公共管理、社会保障及其他/交通事故/交通事故发生数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/交通事故/交通事故发生数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,811 +493,455 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>616971</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>219521</v>
+      </c>
+      <c r="C2" t="n">
+        <v>65</v>
+      </c>
       <c r="D2" t="n">
-        <v>15953</v>
+        <v>4989</v>
       </c>
       <c r="E2" t="n">
-        <v>80426</v>
+        <v>51196</v>
       </c>
       <c r="F2" t="n">
-        <v>577282</v>
+        <v>207156</v>
       </c>
       <c r="G2" t="n">
-        <v>450896</v>
+        <v>148367</v>
       </c>
       <c r="H2" t="n">
-        <v>3014</v>
+        <v>1244</v>
       </c>
       <c r="I2" t="n">
-        <v>15467</v>
+        <v>1978</v>
       </c>
       <c r="J2" t="n">
-        <v>18659</v>
+        <v>2565</v>
       </c>
       <c r="K2" t="n">
-        <v>85637</v>
+        <v>58244</v>
       </c>
       <c r="L2" t="n">
-        <v>19677</v>
+        <v>9735</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>754919</v>
+        <v>210812</v>
       </c>
       <c r="C3" t="n">
-        <v>1941</v>
+        <v>75</v>
       </c>
       <c r="D3" t="n">
-        <v>17095</v>
+        <v>3951</v>
       </c>
       <c r="E3" t="n">
-        <v>116488</v>
+        <v>46749</v>
       </c>
       <c r="F3" t="n">
-        <v>705396</v>
+        <v>198113</v>
       </c>
       <c r="G3" t="n">
-        <v>540046</v>
+        <v>145338</v>
       </c>
       <c r="H3" t="n">
-        <v>3495</v>
+        <v>1201</v>
       </c>
       <c r="I3" t="n">
-        <v>19940</v>
+        <v>1522</v>
       </c>
       <c r="J3" t="n">
-        <v>22888</v>
+        <v>2277</v>
       </c>
       <c r="K3" t="n">
-        <v>99327</v>
+        <v>54704</v>
       </c>
       <c r="L3" t="n">
-        <v>24694</v>
+        <v>10347</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>773137</v>
+        <v>204196</v>
       </c>
       <c r="C4" t="n">
-        <v>54336</v>
+        <v>78</v>
       </c>
       <c r="D4" t="n">
-        <v>19507</v>
+        <v>3370</v>
       </c>
       <c r="E4" t="n">
-        <v>122262</v>
+        <v>42955</v>
       </c>
       <c r="F4" t="n">
-        <v>675449</v>
+        <v>190756</v>
       </c>
       <c r="G4" t="n">
-        <v>549166</v>
+        <v>142995</v>
       </c>
       <c r="H4" t="n">
-        <v>4022</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>17652</v>
+        <v>1433</v>
       </c>
       <c r="J4" t="n">
-        <v>21238</v>
+        <v>2063</v>
       </c>
       <c r="K4" t="n">
-        <v>103309</v>
+        <v>24</v>
       </c>
       <c r="L4" t="n">
-        <v>22114</v>
+        <v>11299</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>667507</v>
+        <v>198394</v>
       </c>
       <c r="C5" t="n">
-        <v>4446</v>
+        <v>63</v>
       </c>
       <c r="D5" t="n">
-        <v>13859</v>
+        <v>3093</v>
       </c>
       <c r="E5" t="n">
-        <v>97381</v>
+        <v>40858</v>
       </c>
       <c r="F5" t="n">
-        <v>627029</v>
+        <v>183404</v>
       </c>
       <c r="G5" t="n">
-        <v>483197</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3927</v>
-      </c>
+        <v>138113</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>14331</v>
+        <v>1304</v>
       </c>
       <c r="J5" t="n">
-        <v>18639</v>
+        <v>2088</v>
       </c>
       <c r="K5" t="n">
-        <v>91758</v>
+        <v>16</v>
       </c>
       <c r="L5" t="n">
-        <v>17393</v>
+        <v>12839</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>517889</v>
+        <v>196812</v>
       </c>
       <c r="C6" t="n">
-        <v>20702</v>
+        <v>74</v>
       </c>
       <c r="D6" t="n">
-        <v>11620</v>
+        <v>2458</v>
       </c>
       <c r="E6" t="n">
-        <v>103686</v>
+        <v>40185</v>
       </c>
       <c r="F6" t="n">
-        <v>471080</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+        <v>180321</v>
+      </c>
+      <c r="G6" t="n">
+        <v>136386</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
       <c r="I6" t="n">
-        <v>9827</v>
+        <v>1393</v>
       </c>
       <c r="J6" t="n">
-        <v>11383</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>2242</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11</v>
+      </c>
       <c r="L6" t="n">
-        <v>14724</v>
+        <v>14175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>450254</v>
+        <v>187781</v>
       </c>
       <c r="C7" t="n">
-        <v>720</v>
+        <v>77</v>
       </c>
       <c r="D7" t="n">
-        <v>10221</v>
+        <v>2185</v>
       </c>
       <c r="E7" t="n">
-        <v>110209</v>
+        <v>37608</v>
       </c>
       <c r="F7" t="n">
-        <v>424409</v>
+        <v>170130</v>
       </c>
       <c r="G7" t="n">
-        <v>303696</v>
+        <v>129155</v>
       </c>
       <c r="H7" t="n">
-        <v>1924</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>8015</v>
+        <v>1369</v>
       </c>
       <c r="J7" t="n">
-        <v>11302</v>
+        <v>2137</v>
       </c>
       <c r="K7" t="n">
-        <v>86060</v>
+        <v>12</v>
       </c>
       <c r="L7" t="n">
-        <v>13823</v>
+        <v>15437</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>378781</v>
+        <v>212846</v>
       </c>
       <c r="C8" t="n">
-        <v>201</v>
+        <v>71</v>
       </c>
       <c r="D8" t="n">
-        <v>10507</v>
+        <v>2247</v>
       </c>
       <c r="E8" t="n">
-        <v>100011</v>
+        <v>43196</v>
       </c>
       <c r="F8" t="n">
-        <v>358249</v>
+        <v>192585</v>
       </c>
       <c r="G8" t="n">
-        <v>230364</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1671</v>
-      </c>
+        <v>145820</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>6621</v>
+        <v>1460</v>
       </c>
       <c r="J8" t="n">
-        <v>7005</v>
-      </c>
-      <c r="K8" t="n">
-        <v>77946</v>
-      </c>
+        <v>2443</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>13326</v>
+        <v>17747</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>327209</v>
+        <v>203049</v>
       </c>
       <c r="C9" t="n">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="D9" t="n">
-        <v>9037</v>
+        <v>1896</v>
       </c>
       <c r="E9" t="n">
-        <v>83008</v>
+        <v>39780</v>
       </c>
       <c r="F9" t="n">
-        <v>309261</v>
+        <v>182343</v>
       </c>
       <c r="G9" t="n">
-        <v>213666</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1469</v>
-      </c>
+        <v>139412</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>4939</v>
+        <v>1576</v>
       </c>
       <c r="J9" t="n">
-        <v>5407</v>
-      </c>
-      <c r="K9" t="n">
-        <v>71289</v>
-      </c>
+        <v>2470</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>12472</v>
+        <v>18144</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>265204</v>
+        <v>244937</v>
       </c>
       <c r="C10" t="n">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="D10" t="n">
-        <v>6824</v>
+        <v>2120</v>
       </c>
       <c r="E10" t="n">
-        <v>65177</v>
+        <v>45868</v>
       </c>
       <c r="F10" t="n">
-        <v>251077</v>
+        <v>216178</v>
       </c>
       <c r="G10" t="n">
-        <v>176093</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1290</v>
-      </c>
+        <v>166906</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>3332</v>
+        <v>1840</v>
       </c>
       <c r="J10" t="n">
-        <v>3889</v>
-      </c>
-      <c r="K10" t="n">
-        <v>64184</v>
-      </c>
+        <v>3045</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>10191</v>
+        <v>25556</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>238351</v>
+        <v>247646</v>
       </c>
       <c r="C11" t="n">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="D11" t="n">
-        <v>6177</v>
+        <v>1865</v>
       </c>
       <c r="E11" t="n">
-        <v>58160</v>
+        <v>45635</v>
       </c>
       <c r="F11" t="n">
-        <v>225096</v>
+        <v>215009</v>
       </c>
       <c r="G11" t="n">
-        <v>158210</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1276</v>
-      </c>
+        <v>159335</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>2591</v>
+        <v>2283</v>
       </c>
       <c r="J11" t="n">
-        <v>2827</v>
-      </c>
-      <c r="K11" t="n">
-        <v>59235</v>
-      </c>
+        <v>3432</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>10354</v>
+        <v>29049</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>219521</v>
+        <v>244674</v>
       </c>
       <c r="C12" t="n">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="D12" t="n">
-        <v>4989</v>
+        <v>1591</v>
       </c>
       <c r="E12" t="n">
-        <v>51196</v>
+        <v>45789</v>
       </c>
       <c r="F12" t="n">
-        <v>207156</v>
+        <v>211074</v>
       </c>
       <c r="G12" t="n">
-        <v>148367</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1244</v>
-      </c>
+        <v>156901</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>1978</v>
+        <v>2611</v>
       </c>
       <c r="J12" t="n">
-        <v>2565</v>
-      </c>
-      <c r="K12" t="n">
-        <v>58244</v>
-      </c>
+        <v>3480</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>9735</v>
+        <v>29969</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>210812</v>
+        <v>273098</v>
       </c>
       <c r="C13" t="n">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="D13" t="n">
-        <v>3951</v>
+        <v>1502</v>
       </c>
       <c r="E13" t="n">
-        <v>46749</v>
+        <v>51740</v>
       </c>
       <c r="F13" t="n">
-        <v>198113</v>
+        <v>233729</v>
       </c>
       <c r="G13" t="n">
-        <v>145338</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1201</v>
-      </c>
+        <v>171941</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>1522</v>
+        <v>2844</v>
       </c>
       <c r="J13" t="n">
-        <v>2277</v>
-      </c>
-      <c r="K13" t="n">
-        <v>54704</v>
-      </c>
+        <v>4086</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>10347</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>204196</v>
-      </c>
-      <c r="C14" t="n">
-        <v>78</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3370</v>
-      </c>
-      <c r="E14" t="n">
-        <v>42955</v>
-      </c>
-      <c r="F14" t="n">
-        <v>190756</v>
-      </c>
-      <c r="G14" t="n">
-        <v>142995</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1433</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2063</v>
-      </c>
-      <c r="K14" t="n">
-        <v>24</v>
-      </c>
-      <c r="L14" t="n">
-        <v>11299</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>198394</v>
-      </c>
-      <c r="C15" t="n">
-        <v>63</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3093</v>
-      </c>
-      <c r="E15" t="n">
-        <v>40858</v>
-      </c>
-      <c r="F15" t="n">
-        <v>183404</v>
-      </c>
-      <c r="G15" t="n">
-        <v>138113</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>1304</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2088</v>
-      </c>
-      <c r="K15" t="n">
-        <v>16</v>
-      </c>
-      <c r="L15" t="n">
-        <v>12839</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>196812</v>
-      </c>
-      <c r="C16" t="n">
-        <v>74</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2458</v>
-      </c>
-      <c r="E16" t="n">
-        <v>40185</v>
-      </c>
-      <c r="F16" t="n">
-        <v>180321</v>
-      </c>
-      <c r="G16" t="n">
-        <v>136386</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1393</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2242</v>
-      </c>
-      <c r="K16" t="n">
-        <v>11</v>
-      </c>
-      <c r="L16" t="n">
-        <v>14175</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>187781</v>
-      </c>
-      <c r="C17" t="n">
-        <v>77</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2185</v>
-      </c>
-      <c r="E17" t="n">
-        <v>37608</v>
-      </c>
-      <c r="F17" t="n">
-        <v>170130</v>
-      </c>
-      <c r="G17" t="n">
-        <v>129155</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1369</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2137</v>
-      </c>
-      <c r="K17" t="n">
-        <v>12</v>
-      </c>
-      <c r="L17" t="n">
-        <v>15437</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>212846</v>
-      </c>
-      <c r="C18" t="n">
-        <v>71</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2247</v>
-      </c>
-      <c r="E18" t="n">
-        <v>43196</v>
-      </c>
-      <c r="F18" t="n">
-        <v>192585</v>
-      </c>
-      <c r="G18" t="n">
-        <v>145820</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>1460</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2443</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>17747</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>203049</v>
-      </c>
-      <c r="C19" t="n">
-        <v>92</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1896</v>
-      </c>
-      <c r="E19" t="n">
-        <v>39780</v>
-      </c>
-      <c r="F19" t="n">
-        <v>182343</v>
-      </c>
-      <c r="G19" t="n">
-        <v>139412</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>1576</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2470</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>18144</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>244937</v>
-      </c>
-      <c r="C20" t="n">
-        <v>158</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2120</v>
-      </c>
-      <c r="E20" t="n">
-        <v>45868</v>
-      </c>
-      <c r="F20" t="n">
-        <v>216178</v>
-      </c>
-      <c r="G20" t="n">
-        <v>166906</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>1840</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3045</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>25556</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>247646</v>
-      </c>
-      <c r="C21" t="n">
-        <v>156</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1865</v>
-      </c>
-      <c r="E21" t="n">
-        <v>45635</v>
-      </c>
-      <c r="F21" t="n">
-        <v>215009</v>
-      </c>
-      <c r="G21" t="n">
-        <v>159335</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
-        <v>2283</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3432</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>29049</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>244674</v>
-      </c>
-      <c r="C22" t="n">
-        <v>151</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1591</v>
-      </c>
-      <c r="E22" t="n">
-        <v>45789</v>
-      </c>
-      <c r="F22" t="n">
-        <v>211074</v>
-      </c>
-      <c r="G22" t="n">
-        <v>156901</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="n">
-        <v>2611</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3480</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>29969</v>
+        <v>35141</v>
       </c>
     </row>
   </sheetData>
